--- a/lib/PHPExcel/templates/Report Str.xlsx
+++ b/lib/PHPExcel/templates/Report Str.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE20D48-B695-4F17-8BDF-8B7F21EDD0EF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D07E15-40CD-48F4-A278-A48DF73C1113}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13215" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="En-tête" sheetId="14" r:id="rId1"/>
@@ -509,7 +509,7 @@
     <numFmt numFmtId="167" formatCode="#0.0#"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -765,6 +765,13 @@
       <color theme="8" tint="-0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1079,7 +1086,7 @@
     <xf numFmtId="166" fontId="22" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1487,6 +1494,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2063,7 +2073,7 @@
   </sheetPr>
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
@@ -2671,10 +2681,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CY66"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A41" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="D14" sqref="D14:D15"/>
-      <selection pane="topRight" activeCell="A49" sqref="A49"/>
+      <selection pane="topRight" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3599,7 +3609,9 @@
       <c r="CX58" s="45"/>
       <c r="CY58" s="45"/>
     </row>
-    <row r="59" spans="1:103" s="122" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:103" s="122" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D59" s="162"/>
+    </row>
     <row r="60" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="72" t="s">
         <v>109</v>
@@ -3863,12 +3875,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005385EB61B379B64FA3FA00EFD5F48211" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="15b97f2a5ef9ff731d6c6b6a53c29c79">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97" xmlns:ns3="b1338d7f-541f-4bc8-84bc-74292fa164fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bdf937eed7c5c26b74985f5c8ee9608f" ns2:_="" ns3:_="">
     <xsd:import namespace="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
@@ -4033,6 +4039,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4043,23 +4055,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A333848-59BB-40E8-9C6B-EB280D704CD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
-    <ds:schemaRef ds:uri="b1338d7f-541f-4bc8-84bc-74292fa164fd"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8703DD9A-9B27-437E-AB91-283DE2CA9618}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4078,6 +4073,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A333848-59BB-40E8-9C6B-EB280D704CD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
+    <ds:schemaRef ds:uri="b1338d7f-541f-4bc8-84bc-74292fa164fd"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8534C3E6-3099-47F9-8B03-0EBDF0F03913}">
   <ds:schemaRefs>
